--- a/data/Geografie/Staufenberg/Staufenberg.xlsx
+++ b/data/Geografie/Staufenberg/Staufenberg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\PlatformIO\Projects\TTS\data\Geografie\Staufenberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFDA2B-D743-4226-BA53-77BDA84E3B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4CE57-3305-4800-A457-BF958697BCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{AFD4EC4A-1F29-450A-8D3C-B54CF9616E00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{AFD4EC4A-1F29-450A-8D3C-B54CF9616E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Staufenberg" sheetId="1" r:id="rId1"/>
@@ -879,11 +879,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE10B986-0001-4A83-95E1-292728C1DF9F}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1694,7 +1697,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,11 +2193,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C364C41C-7F39-45B7-9D26-B6F82C121495}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2656,11 +2662,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C6B37B-D5DA-4661-8D8A-2D8FA32CEEC4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
